--- a/APM files/126942455/126942455 IMPORT 1 PS&NS - deactivation.xlsx
+++ b/APM files/126942455/126942455 IMPORT 1 PS&NS - deactivation.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\dev\workspace\APM files\126942455\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\126942455\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC7EAA-F435-4B02-8251-28D360759D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3CDD48-90BE-41EF-B4F5-606A673C16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4568" yWindow="1515" windowWidth="16740" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15540" yWindow="5505" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>SF ID</t>
   </si>
@@ -49,12 +62,6 @@
     <t>Stop Sell Property</t>
   </si>
   <si>
-    <t>Stop Sell Reason</t>
-  </si>
-  <si>
-    <t>Projected Stop Sell End Date</t>
-  </si>
-  <si>
     <t>Group Recon Enabled</t>
   </si>
   <si>
@@ -79,52 +86,46 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Fax Country Code</t>
-  </si>
-  <si>
-    <t>Fax Area Code</t>
-  </si>
-  <si>
-    <t>Fax Number</t>
-  </si>
-  <si>
     <t>Additional Notification Email Address</t>
   </si>
   <si>
-    <t>Additional Notification Fax Country Code</t>
-  </si>
-  <si>
-    <t>Additional Notification Fax Area Code</t>
-  </si>
-  <si>
-    <t>Additional Notification Fax Number</t>
-  </si>
-  <si>
-    <t>Terminate Independent Agreement</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Direct Contract to be deactivated</t>
-  </si>
-  <si>
-    <t>06/06/2079</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>x@x.com</t>
+    <t>EQC_PA</t>
+  </si>
+  <si>
+    <t>104267642</t>
+  </si>
+  <si>
+    <t>104835463</t>
+  </si>
+  <si>
+    <t>104459720</t>
+  </si>
+  <si>
+    <t>104459715</t>
+  </si>
+  <si>
+    <t>104459713</t>
+  </si>
+  <si>
+    <t>104459714</t>
+  </si>
+  <si>
+    <t>E-Notification</t>
+  </si>
+  <si>
+    <t>info@pembrokeshirepropertymanagement.co.uk</t>
   </si>
 </sst>
 </file>
@@ -502,15 +503,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,35 +586,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>126942455</v>
       </c>
@@ -601,82 +595,46 @@
         <v>104267642</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>126942455</v>
       </c>
@@ -684,82 +642,46 @@
         <v>104835463</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>126942455</v>
       </c>
@@ -767,82 +689,46 @@
         <v>104459720</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>126942455</v>
       </c>
@@ -850,82 +736,46 @@
         <v>104459715</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>126942455</v>
       </c>
@@ -933,82 +783,46 @@
         <v>104459713</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>126942455</v>
       </c>
@@ -1016,79 +830,43 @@
         <v>104459714</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
